--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.uppunda\Documents\UiPath\TatkalBooking\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06620707-A5A8-4CDA-A3C9-C1B28EF624EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -249,19 +243,16 @@
     <t>TK</t>
   </si>
   <si>
-    <t>22-05-2019</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
     <t>Window Side</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -329,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -337,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -450,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -644,18 +636,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -730,8 +722,8 @@
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
+      <c r="B5" s="7">
+        <v>42057</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -753,7 +745,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="5">
-        <v>12079</v>
+        <v>12851</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>51</v>
@@ -801,7 +793,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -817,7 +809,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="4">
-        <v>8105083941</v>
+        <v>9807277534</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1841,7 +1833,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{47D90F1D-1E44-427D-AAAC-A3481E093D74}"/>
+    <hyperlink ref="B18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1849,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3062,7 +3054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
